--- a/data/trans_orig/P14B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88551B6C-E928-445E-8203-9458A8F4C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74878B8E-BFD6-485A-B697-8A0B7544F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{648DA475-2CFD-488C-AFBD-CD00522C4530}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4BF840-2EC0-4ED5-A0C2-05EB861CE497}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>79,83%</t>
   </si>
   <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,1261 +145,1315 @@
     <t>29,08%</t>
   </si>
   <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49044B82-013E-4209-8A01-D660FB7C5F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8C479-9BCE-467E-8640-BB11CF19EA4A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3038,7 +3092,7 @@
         <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3107,13 @@
         <v>26445</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3068,13 +3122,13 @@
         <v>17885</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -3083,13 +3137,13 @@
         <v>44331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3211,13 @@
         <v>99285</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
@@ -3172,13 +3226,13 @@
         <v>148174</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>229</v>
@@ -3187,13 +3241,13 @@
         <v>247458</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3262,13 @@
         <v>154772</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>148</v>
@@ -3223,13 +3277,13 @@
         <v>155865</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>292</v>
@@ -3238,13 +3292,13 @@
         <v>310638</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3354,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39E0C6-395E-4B76-818D-904FE130CC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88118FF2-813A-4B21-B56B-523C826B5985}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3448,13 +3502,13 @@
         <v>2313</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3463,13 +3517,13 @@
         <v>1899</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3478,13 +3532,13 @@
         <v>4212</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,7 +3553,7 @@
         <v>18871</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>174</v>
@@ -3764,7 +3818,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3812,7 +3866,7 @@
         <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>208</v>
@@ -3931,10 +3985,10 @@
         <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3943,13 +3997,13 @@
         <v>12807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4018,13 @@
         <v>38039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3979,13 +4033,13 @@
         <v>19927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -3994,13 +4048,13 @@
         <v>57966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4122,13 @@
         <v>3642</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4083,13 +4137,13 @@
         <v>5016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4098,13 +4152,13 @@
         <v>8658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4173,13 @@
         <v>9399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4134,13 +4188,13 @@
         <v>14584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4149,13 +4203,13 @@
         <v>23983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4277,13 @@
         <v>4857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4238,13 +4292,13 @@
         <v>4259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4253,13 +4307,13 @@
         <v>9116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4328,13 @@
         <v>13346</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4289,13 +4343,13 @@
         <v>15120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4304,13 +4358,13 @@
         <v>28466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4432,13 @@
         <v>26285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4393,13 +4447,13 @@
         <v>16546</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4408,13 +4462,13 @@
         <v>42832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4483,13 @@
         <v>47987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -4444,13 +4498,13 @@
         <v>44234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -4459,13 +4513,13 @@
         <v>92221</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4587,13 @@
         <v>16596</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4548,13 +4602,13 @@
         <v>22304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4563,13 +4617,13 @@
         <v>38900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4638,13 @@
         <v>56972</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -4599,13 +4653,13 @@
         <v>52584</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -4614,13 +4668,13 @@
         <v>109556</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4742,13 @@
         <v>74305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -4703,13 +4757,13 @@
         <v>78180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>141</v>
@@ -4718,13 +4772,13 @@
         <v>152485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4793,13 @@
         <v>223411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -4754,13 +4808,13 @@
         <v>218999</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>414</v>
@@ -4769,13 +4823,13 @@
         <v>442410</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4885,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520D019-24D5-489C-A20E-326E190949FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20BBF54-C0D2-47BF-BC00-08938171C8B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4872,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4979,13 +5033,13 @@
         <v>1506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4994,13 +5048,13 @@
         <v>401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5009,13 +5063,13 @@
         <v>1908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,10 +5084,10 @@
         <v>28793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>175</v>
@@ -5045,10 +5099,10 @@
         <v>21394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>175</v>
@@ -5060,13 +5114,13 @@
         <v>50187</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5188,13 @@
         <v>9194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5149,13 +5203,13 @@
         <v>17787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -5164,13 +5218,13 @@
         <v>26981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5239,13 @@
         <v>34571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -5200,13 +5254,13 @@
         <v>29880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -5215,13 +5269,13 @@
         <v>64450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5343,13 @@
         <v>1257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5304,13 +5358,13 @@
         <v>2279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5319,13 +5373,13 @@
         <v>3536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,10 +5394,10 @@
         <v>34346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>175</v>
@@ -5355,13 +5409,13 @@
         <v>32922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5370,13 +5424,13 @@
         <v>67268</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5498,13 @@
         <v>3057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5459,13 +5513,13 @@
         <v>7054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5474,13 +5528,13 @@
         <v>10111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5549,13 @@
         <v>26390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5510,13 +5564,13 @@
         <v>21579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -5525,13 +5579,13 @@
         <v>47970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5653,13 @@
         <v>1644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5614,13 +5668,13 @@
         <v>2021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5629,13 +5683,13 @@
         <v>3665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5704,13 @@
         <v>15849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -5665,13 +5719,13 @@
         <v>28000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -5680,13 +5734,13 @@
         <v>43849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5808,13 @@
         <v>5013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5769,13 +5823,13 @@
         <v>4603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5784,13 +5838,13 @@
         <v>9616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5859,13 @@
         <v>34385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5820,13 +5874,13 @@
         <v>23113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -5835,13 +5889,13 @@
         <v>57498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5963,13 @@
         <v>9762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5924,13 +5978,13 @@
         <v>12168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -5939,13 +5993,13 @@
         <v>21930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +6014,13 @@
         <v>47794</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>54</v>
@@ -5975,13 +6029,13 @@
         <v>31331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -5990,13 +6044,13 @@
         <v>79124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6118,13 @@
         <v>5249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6079,13 +6133,13 @@
         <v>12893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>54</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6094,13 +6148,13 @@
         <v>18142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6169,13 @@
         <v>57412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -6130,13 +6184,13 @@
         <v>41034</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -6145,13 +6199,13 @@
         <v>98446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6273,13 @@
         <v>36682</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>102</v>
@@ -6234,13 +6288,13 @@
         <v>59205</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -6249,13 +6303,13 @@
         <v>95887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6324,13 @@
         <v>279540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -6285,28 +6339,28 @@
         <v>229253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>817</v>
       </c>
       <c r="N29" s="7">
-        <v>508794</v>
+        <v>508793</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6402,7 @@
         <v>967</v>
       </c>
       <c r="N30" s="7">
-        <v>604681</v>
+        <v>604680</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -6362,7 +6416,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B02-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74878B8E-BFD6-485A-B697-8A0B7544F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DB6F07-F09B-4924-B55D-3EB70A05A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4BF840-2EC0-4ED5-A0C2-05EB861CE497}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30B584CE-5142-496A-B7D2-369849EFC9FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Población cuya diabetes le limita en 2012 (Tasa respuesta: 8,01%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>79,83%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>44,05%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>39,76%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>49,49%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>50,51%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>54,97%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,55 +259,55 @@
     <t>27,72%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>71,43%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,55 +316,55 @@
     <t>15,15%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -373,55 +373,55 @@
     <t>23,89%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -430,109 +430,109 @@
     <t>46,45%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>53,55%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>44,34%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
   </si>
   <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya diabetes le limita en 2015 (Tasa respuesta: 8,45%)</t>
+    <t>Población cuya diabetes le limita en 2016 (Tasa respuesta: 8,45%)</t>
   </si>
   <si>
     <t>10,92%</t>
@@ -541,28 +541,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,94%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>38,2%</t>
+    <t>38,16%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>68,06%</t>
+    <t>66,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -571,709 +571,715 @@
     <t>87,67%</t>
   </si>
   <si>
-    <t>61,8%</t>
+    <t>61,84%</t>
   </si>
   <si>
     <t>88,49%</t>
   </si>
   <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>93,01%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>Población cuya diabetes le limita en 2023 (Tasa respuesta: 11,06%)</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
   </si>
   <si>
     <t>83,39%</t>
@@ -1865,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8C479-9BCE-467E-8640-BB11CF19EA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A414F6-21CB-4B21-8DED-BD7EC06357DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3086,13 +3092,13 @@
         <v>53512</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,10 +3143,10 @@
         <v>44331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>144</v>
@@ -3378,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88118FF2-813A-4B21-B56B-523C826B5985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2119C7-ABAA-4AFE-93F4-69178DFC1BDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3818,7 +3824,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3827,13 +3833,13 @@
         <v>4746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3842,13 +3848,13 @@
         <v>8745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3869,13 @@
         <v>10515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3878,13 +3884,13 @@
         <v>19776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -3893,13 +3899,13 @@
         <v>30290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3973,13 @@
         <v>6464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3982,13 +3988,13 @@
         <v>6343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3997,13 +4003,13 @@
         <v>12807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4024,13 @@
         <v>38039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4033,13 +4039,13 @@
         <v>19927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -4048,13 +4054,13 @@
         <v>57966</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4128,13 @@
         <v>3642</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4137,13 +4143,13 @@
         <v>5016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4152,13 +4158,13 @@
         <v>8658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4179,13 @@
         <v>9399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4188,13 +4194,13 @@
         <v>14584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4203,13 +4209,13 @@
         <v>23983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4283,13 @@
         <v>4857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4292,13 +4298,13 @@
         <v>4259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4307,13 +4313,13 @@
         <v>9116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4334,13 @@
         <v>13346</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -4343,13 +4349,13 @@
         <v>15120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4358,13 +4364,13 @@
         <v>28466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4438,13 @@
         <v>26285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4447,13 +4453,13 @@
         <v>16546</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -4462,13 +4468,13 @@
         <v>42832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4489,13 @@
         <v>47987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -4498,13 +4504,13 @@
         <v>44234</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -4513,13 +4519,13 @@
         <v>92221</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4593,13 @@
         <v>16596</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4602,13 +4608,13 @@
         <v>22304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4617,13 +4623,13 @@
         <v>38900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4644,13 @@
         <v>56972</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -4653,13 +4659,13 @@
         <v>52584</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -4668,13 +4674,13 @@
         <v>109556</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4748,13 @@
         <v>74305</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -4757,13 +4763,13 @@
         <v>78180</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>141</v>
@@ -4772,13 +4778,13 @@
         <v>152485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>223411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -4808,13 +4814,13 @@
         <v>218999</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>414</v>
@@ -4823,13 +4829,13 @@
         <v>442410</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20BBF54-C0D2-47BF-BC00-08938171C8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF03751-7FBE-4E55-8805-5FDDC3462814}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5039,13 @@
         <v>1506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5048,13 +5054,13 @@
         <v>401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5063,13 +5069,13 @@
         <v>1908</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,10 +5090,10 @@
         <v>28793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>175</v>
@@ -5099,10 +5105,10 @@
         <v>21394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>175</v>
@@ -5114,13 +5120,13 @@
         <v>50187</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5194,13 @@
         <v>9194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5203,13 +5209,13 @@
         <v>17787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -5218,13 +5224,13 @@
         <v>26981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5245,13 @@
         <v>34571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -5254,13 +5260,13 @@
         <v>29880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -5269,13 +5275,13 @@
         <v>64450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5349,13 @@
         <v>1257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5358,13 +5364,13 @@
         <v>2279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5373,13 +5379,13 @@
         <v>3536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,10 +5400,10 @@
         <v>34346</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>175</v>
@@ -5409,10 +5415,10 @@
         <v>32922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>366</v>
@@ -5653,13 +5659,13 @@
         <v>1644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5704,10 +5710,10 @@
         <v>15849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>395</v>
@@ -5811,10 +5817,10 @@
         <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -5823,13 +5829,13 @@
         <v>4603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -5838,13 +5844,13 @@
         <v>9616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5865,13 @@
         <v>34385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -5874,13 +5880,13 @@
         <v>23113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -5889,13 +5895,13 @@
         <v>57498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5969,13 @@
         <v>9762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5978,13 +5984,13 @@
         <v>12168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -5993,13 +5999,13 @@
         <v>21930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6020,13 @@
         <v>47794</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>54</v>
@@ -6029,13 +6035,13 @@
         <v>31331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -6044,13 +6050,13 @@
         <v>79124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6124,13 @@
         <v>5249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6133,13 +6139,13 @@
         <v>12893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6148,13 +6154,13 @@
         <v>18142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6175,13 @@
         <v>57412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -6184,13 +6190,13 @@
         <v>41034</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -6199,13 +6205,13 @@
         <v>98446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6279,13 @@
         <v>36682</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>102</v>
@@ -6288,13 +6294,13 @@
         <v>59205</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>150</v>
@@ -6303,13 +6309,13 @@
         <v>95887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6330,13 @@
         <v>279540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -6339,13 +6345,13 @@
         <v>229253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>817</v>
@@ -6354,13 +6360,13 @@
         <v>508793</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
